--- a/APF/QA/RA006/QAP001_APF_RA006_APF0203_角色可查詢組織設定.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0203_角色可查詢組織設定.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a8907010\Documents\suda3g\9. 品質管理\9.3 文件檢視記錄統計\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1395" yWindow="270" windowWidth="10920" windowHeight="5610" tabRatio="549" activeTab="1"/>
   </bookViews>
@@ -29,7 +24,7 @@
     <definedName name="原因分類">備註說明!$D$2:$D$8</definedName>
     <definedName name="植入Bug來源">備註說明!$A$2:$A$19</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -40,7 +35,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0">
+    <comment ref="J6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="K6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0">
+    <comment ref="L6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q6" authorId="1" shapeId="0">
+    <comment ref="Q6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -125,7 +120,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="423">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2537,6 +2532,13 @@
   </si>
   <si>
     <t>考慮不足</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>傳勝、英杰、慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4015,13 +4017,13 @@
     <cellStyle name="輔色4" xfId="33" builtinId="41" customBuiltin="1"/>
     <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="輔色6" xfId="35" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="標準_障害" xfId="36"/>
     <cellStyle name="標題" xfId="37" builtinId="15" customBuiltin="1"/>
     <cellStyle name="標題 1" xfId="38" builtinId="16" customBuiltin="1"/>
     <cellStyle name="標題 2" xfId="39" builtinId="17" customBuiltin="1"/>
     <cellStyle name="標題 3" xfId="40" builtinId="18" customBuiltin="1"/>
     <cellStyle name="標題 4" xfId="41" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="輸入" xfId="43" builtinId="20" customBuiltin="1"/>
     <cellStyle name="輸出" xfId="44" builtinId="21" customBuiltin="1"/>
     <cellStyle name="檢查儲存格" xfId="45" builtinId="23" customBuiltin="1"/>
@@ -4121,7 +4123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4156,7 +4158,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4632,10 +4634,10 @@
   <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8:Q9"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4764,15 +4766,15 @@
       </c>
       <c r="C5" s="99">
         <f>COUNTIF($C$7:$C$27,"&gt;""")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="108">
         <f>SUM($M$7:$M$27)</f>
-        <v>10.999999999999993</v>
+        <v>12.499999999999996</v>
       </c>
       <c r="E5" s="99">
         <f>SUM($J$7:$J$27)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F5" s="109">
         <f ca="1">SUM($N$7:$N$27)</f>
@@ -5032,24 +5034,63 @@
       <c r="R9" s="72"/>
     </row>
     <row r="10" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A10" s="64"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="74"/>
+      <c r="A10" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="D10" s="140" t="s">
+        <v>405</v>
+      </c>
+      <c r="E10" s="66">
+        <v>41593</v>
+      </c>
+      <c r="F10" s="140" t="s">
+        <v>402</v>
+      </c>
+      <c r="G10" s="66">
+        <v>41593</v>
+      </c>
+      <c r="H10" s="67">
+        <v>0.625</v>
+      </c>
+      <c r="I10" s="67">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="J10" s="65">
+        <v>3</v>
+      </c>
+      <c r="K10" s="68" t="s">
+        <v>422</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>404</v>
+      </c>
+      <c r="M10" s="70">
+        <f>IF(C10="","",J10*(I10-H10)*24)</f>
+        <v>1.5000000000000027</v>
+      </c>
+      <c r="N10" s="63">
+        <f>IF(C10="","",COUNTIF(改善明細!A:A,Q10))</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="63">
+        <f>IF(C10="","",COUNTIFS(改善明細!$A:$A,Q10, 改善明細!$J:$J,"V"))</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="71" t="str">
+        <f t="shared" ref="P10" si="3">IF(Q10="","",LEFT(Q10,FIND("-",Q10)-1))</f>
+        <v>SD PM</v>
+      </c>
+      <c r="Q10" s="71" t="str">
+        <f>IF(OR(A10="",B10=""),"",A10&amp;"-"&amp;B10)</f>
+        <v>SD PM-4</v>
+      </c>
+      <c r="R10" s="72"/>
     </row>
     <row r="11" spans="1:20" s="55" customFormat="1" ht="16.5">
       <c r="A11" s="64"/>
@@ -5088,7 +5129,7 @@
       <c r="K12" s="68"/>
       <c r="L12" s="69"/>
       <c r="M12" s="70" t="str">
-        <f t="shared" ref="M12:M20" si="3">IF(C12="","",J12*(I12-H12)*24)</f>
+        <f t="shared" ref="M12:M20" si="4">IF(C12="","",J12*(I12-H12)*24)</f>
         <v/>
       </c>
       <c r="N12" s="63" t="str">
@@ -5100,11 +5141,11 @@
         <v/>
       </c>
       <c r="P12" s="71" t="str">
-        <f t="shared" ref="P12:P20" ca="1" si="4">IF(Q12="","",LEFT(Q12,FIND("-",Q12)-1))</f>
+        <f t="shared" ref="P12:P20" ca="1" si="5">IF(Q12="","",LEFT(Q12,FIND("-",Q12)-1))</f>
         <v/>
       </c>
       <c r="Q12" s="71" t="str">
-        <f t="shared" ref="Q12:Q20" ca="1" si="5">IF(OR(A12="",B12=""),"",A12&amp;"-"&amp;B12)</f>
+        <f t="shared" ref="Q12:Q20" ca="1" si="6">IF(OR(A12="",B12=""),"",A12&amp;"-"&amp;B12)</f>
         <v/>
       </c>
       <c r="R12" s="74"/>
@@ -5126,7 +5167,7 @@
       <c r="K13" s="68"/>
       <c r="L13" s="69"/>
       <c r="M13" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N13" s="63" t="str">
@@ -5138,11 +5179,11 @@
         <v/>
       </c>
       <c r="P13" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q13" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R13" s="74"/>
@@ -5164,7 +5205,7 @@
       <c r="K14" s="68"/>
       <c r="L14" s="69"/>
       <c r="M14" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N14" s="63" t="str">
@@ -5176,11 +5217,11 @@
         <v/>
       </c>
       <c r="P14" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q14" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R14" s="74"/>
@@ -5202,7 +5243,7 @@
       <c r="K15" s="68"/>
       <c r="L15" s="69"/>
       <c r="M15" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N15" s="63" t="str">
@@ -5214,7 +5255,7 @@
         <v/>
       </c>
       <c r="P15" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q15" s="71" t="str">
@@ -5240,7 +5281,7 @@
       <c r="K16" s="68"/>
       <c r="L16" s="69"/>
       <c r="M16" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N16" s="63" t="str">
@@ -5252,11 +5293,11 @@
         <v/>
       </c>
       <c r="P16" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q16" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R16" s="74"/>
@@ -5278,7 +5319,7 @@
       <c r="K17" s="68"/>
       <c r="L17" s="69"/>
       <c r="M17" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N17" s="63" t="str">
@@ -5290,11 +5331,11 @@
         <v/>
       </c>
       <c r="P17" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q17" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R17" s="74"/>
@@ -5316,7 +5357,7 @@
       <c r="K18" s="68"/>
       <c r="L18" s="69"/>
       <c r="M18" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N18" s="63" t="str">
@@ -5328,11 +5369,11 @@
         <v/>
       </c>
       <c r="P18" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q18" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R18" s="74"/>
@@ -5354,7 +5395,7 @@
       <c r="K19" s="68"/>
       <c r="L19" s="69"/>
       <c r="M19" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N19" s="63" t="str">
@@ -5366,11 +5407,11 @@
         <v/>
       </c>
       <c r="P19" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q19" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R19" s="74"/>
@@ -5392,7 +5433,7 @@
       <c r="K20" s="68"/>
       <c r="L20" s="69"/>
       <c r="M20" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N20" s="63" t="str">
@@ -5404,11 +5445,11 @@
         <v/>
       </c>
       <c r="P20" s="71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Q20" s="71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="R20" s="74"/>
@@ -5949,10 +5990,10 @@
   <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
